--- a/7RMartMainProject/src/test/resources/log.xlsx
+++ b/7RMartMainProject/src/test/resources/log.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\eclipse\7RMartMainProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drisa\git\7RMartMainProject\7RMartMainProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F30039-F6D6-4600-A027-522795FDEB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432B407-6791-4FB7-ABCF-04F22FE2AE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserText" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUserSearch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>cccc</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Ilona</t>
+  </si>
+  <si>
+    <t>Lorilee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marivel.koch	</t>
   </si>
 </sst>
 </file>
@@ -416,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C4B6-AB1B-40C1-81D9-0BD86899E94E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -449,4 +462,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C20237E-98DA-4E00-ADDA-14AC312DD46D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartMainProject/src/test/resources/log.xlsx
+++ b/7RMartMainProject/src/test/resources/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drisa\git\7RMartMainProject\7RMartMainProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432B407-6791-4FB7-ABCF-04F22FE2AE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FAF700-6D21-48BE-8446-92C4782388F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -44,18 +44,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>drisya</t>
-  </si>
-  <si>
-    <t>satheesh</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t xml:space="preserve">marivel.koch	</t>
+  </si>
+  <si>
+    <t>neee</t>
+  </si>
+  <si>
+    <t>drddr</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>deepu</t>
   </si>
 </sst>
 </file>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,6 +420,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -429,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0C4B6-AB1B-40C1-81D9-0BD86899E94E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,18 +453,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C20237E-98DA-4E00-ADDA-14AC312DD46D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -476,22 +484,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
